--- a/02_設計/03_画面遷移図/【フォーマット】画面遷移図.xlsx
+++ b/02_設計/03_画面遷移図/【フォーマット】画面遷移図.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kisim\OneDrive\Documents\GitHub\scheduleOnline\02_設計\01_画面レイアウト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f081ddaca2e466ec/ドキュメント/2021年技術研修/設計書テンプレート/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="354" documentId="11_AD4D066CA252ABDACC1048E061D0D8A073EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5B16B4C-63A1-4972-AAD5-FB950E8FBC7E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -77,13 +78,6 @@
     <t>内容</t>
     <rPh sb="0" eb="2">
       <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>概要</t>
-    <rPh sb="0" eb="2">
-      <t>ガイヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -154,48 +148,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面遷移ID</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面遷移名称</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>メイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面遷移図</t>
     <rPh sb="0" eb="4">
       <t>ガメンセンイ</t>
     </rPh>
     <rPh sb="4" eb="5">
       <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン画面からメニュー選択画面に遷移</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="16">
-      <t>センタクガメン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -207,21 +165,52 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メニュー選択画面遷移</t>
-    <rPh sb="4" eb="10">
-      <t>センタクガメンセンイ</t>
+    <t>画面名</t>
+    <rPh sb="0" eb="3">
+      <t>ガメンメイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>A0-001-002</t>
+    <t>画面ID</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S0-001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面名</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補足</t>
+    <rPh sb="0" eb="2">
+      <t>ホソク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -637,7 +626,7 @@
         <xdr:cNvPr id="2" name="グループ化 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E68DC74E-6736-4C92-8ACD-D13522DA6B05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E68DC74E-6736-4C92-8ACD-D13522DA6B05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -645,8 +634,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3905249" y="1588293"/>
-          <a:ext cx="1928814" cy="1666876"/>
+          <a:off x="3933824" y="1523999"/>
+          <a:ext cx="1943101" cy="1600201"/>
           <a:chOff x="3562349" y="1628774"/>
           <a:chExt cx="1943101" cy="1600201"/>
         </a:xfrm>
@@ -656,7 +645,7 @@
           <xdr:cNvPr id="3" name="二等辺三角形 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1993DDA2-5E54-4501-8567-6D25A548FE85}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1993DDA2-5E54-4501-8567-6D25A548FE85}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -707,7 +696,7 @@
           <xdr:cNvPr id="4" name="フレーム 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D668ACF-98EE-4105-B8F4-0ACD692B9F61}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D668ACF-98EE-4105-B8F4-0ACD692B9F61}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -762,7 +751,7 @@
           <xdr:cNvPr id="5" name="テキスト ボックス 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E0C1AB2E-125B-4701-9B17-01CD0CDDA05A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0C1AB2E-125B-4701-9B17-01CD0CDDA05A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -843,7 +832,7 @@
         <xdr:cNvPr id="6" name="テキスト ボックス 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{91CBF1E3-C997-4C9F-92E3-2A31D864342A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91CBF1E3-C997-4C9F-92E3-2A31D864342A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -916,7 +905,7 @@
         <xdr:cNvPr id="7" name="グループ化 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{306FA80B-81D6-4B3C-A501-5AF5C5CD0192}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{306FA80B-81D6-4B3C-A501-5AF5C5CD0192}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -924,8 +913,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3905249" y="5369718"/>
-          <a:ext cx="1928814" cy="1666876"/>
+          <a:off x="3933824" y="5153024"/>
+          <a:ext cx="1943101" cy="1600201"/>
           <a:chOff x="3562349" y="1628774"/>
           <a:chExt cx="1943101" cy="1600201"/>
         </a:xfrm>
@@ -935,7 +924,7 @@
           <xdr:cNvPr id="8" name="二等辺三角形 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4D0D90E-A860-410C-96A4-2F511BB6D354}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4D0D90E-A860-410C-96A4-2F511BB6D354}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -986,7 +975,7 @@
           <xdr:cNvPr id="9" name="フレーム 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1475A20A-4D19-467B-A900-7A10BDCAC68C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1475A20A-4D19-467B-A900-7A10BDCAC68C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1041,7 +1030,7 @@
           <xdr:cNvPr id="10" name="テキスト ボックス 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B951CF0F-C64B-4A2A-8C6B-941F02B2E54A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B951CF0F-C64B-4A2A-8C6B-941F02B2E54A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1165,7 +1154,7 @@
         <xdr:cNvPr id="11" name="四角形: 角を丸くする 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B6E1583C-D8F1-47E4-8A11-6AB3491EB8A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6E1583C-D8F1-47E4-8A11-6AB3491EB8A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1212,145 +1201,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>123827</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>161927</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="矢印: 五方向 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7C710F4A-1131-464D-B7B2-48BF8CAEE90A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="4584383" y="7927659"/>
-          <a:ext cx="723900" cy="1163955"/>
-        </a:xfrm>
-        <a:prstGeom prst="homePlate">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>S0-003</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>33338</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>123827</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{039680D1-EEB7-41E4-9051-4CD8665AE0FC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="3"/>
-          <a:endCxn id="12" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4948238" y="6747510"/>
-          <a:ext cx="14287" cy="1400177"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>42863</xdr:colOff>
       <xdr:row>13</xdr:row>
@@ -1367,7 +1217,7 @@
         <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3AB36963-D59C-4559-9E1D-24FB140A0308}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AB36963-D59C-4559-9E1D-24FB140A0308}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1426,7 +1276,7 @@
         <xdr:cNvPr id="15" name="ひし形 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{40753AE2-B09F-4EDC-B4D8-4AC39720D114}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40753AE2-B09F-4EDC-B4D8-4AC39720D114}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1494,7 +1344,7 @@
         <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E0E90CDD-2AA6-4177-B9AE-8DD238329C8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0E90CDD-2AA6-4177-B9AE-8DD238329C8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1553,7 +1403,7 @@
         <xdr:cNvPr id="17" name="コネクタ: カギ線 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{344F9764-89D3-4CD6-B977-9CFE1FB7DC9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{344F9764-89D3-4CD6-B977-9CFE1FB7DC9B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1612,7 +1462,7 @@
         <xdr:cNvPr id="18" name="テキスト ボックス 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50AEEDB3-3012-41A2-ADD5-251A78A50A53}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50AEEDB3-3012-41A2-ADD5-251A78A50A53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1676,7 +1526,7 @@
         <xdr:cNvPr id="19" name="コネクタ: カギ線 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57636415-C36B-4553-BAE4-42063A8DCD12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57636415-C36B-4553-BAE4-42063A8DCD12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1735,7 +1585,7 @@
         <xdr:cNvPr id="20" name="テキスト ボックス 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB34BD90-C3AC-4356-AEA9-49D523E1B64C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB34BD90-C3AC-4356-AEA9-49D523E1B64C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1807,7 +1657,7 @@
         <xdr:cNvPr id="21" name="テキスト ボックス 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BAC39955-ECBB-4DF5-89D4-E224FD9EE2D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAC39955-ECBB-4DF5-89D4-E224FD9EE2D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2118,36 +1968,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AAE25D-EA43-4FE5-BBFF-112166FF36B9}">
   <dimension ref="E11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="11" spans="5:5" ht="58.5">
+    <row r="11" spans="5:5" ht="58.2">
       <c r="E11" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43ECED-C49E-487B-A707-8B19853E3EDC}">
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5.25" customWidth="1"/>
+    <col min="1" max="1" width="5.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2919,26 +2769,26 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35813DF8-F119-4842-950B-7ED0ADF5C4C6}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ41"/>
+  <dimension ref="A1:AQ40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection sqref="A1:L3"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="4.296875" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:43" ht="19.5" thickTop="1">
+    <row r="1" spans="1:43" ht="18.600000000000001" thickTop="1">
       <c r="A1" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -2952,7 +2802,7 @@
       <c r="K1" s="24"/>
       <c r="L1" s="24"/>
       <c r="M1" s="18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N1" s="18"/>
       <c r="O1" s="18"/>
@@ -3003,7 +2853,7 @@
       <c r="K2" s="26"/>
       <c r="L2" s="26"/>
       <c r="M2" s="20" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
@@ -3040,7 +2890,7 @@
       <c r="AP2" s="20"/>
       <c r="AQ2" s="22"/>
     </row>
-    <row r="3" spans="1:43" ht="19.5" thickBot="1">
+    <row r="3" spans="1:43" ht="18.600000000000001" thickBot="1">
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -3054,7 +2904,7 @@
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
       <c r="M3" s="30" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="N3" s="30"/>
       <c r="O3" s="31"/>
@@ -3087,10 +2937,10 @@
       <c r="AP3" s="31"/>
       <c r="AQ3" s="32"/>
     </row>
-    <row r="4" spans="1:43" ht="19.5" thickTop="1"/>
+    <row r="4" spans="1:43" ht="18.600000000000001" thickTop="1"/>
     <row r="5" spans="1:43">
       <c r="A5" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -4666,94 +4516,49 @@
       <c r="AQ39" s="7"/>
     </row>
     <row r="40" spans="1:43">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="6"/>
-      <c r="X40" s="6"/>
-      <c r="Y40" s="6"/>
-      <c r="Z40" s="6"/>
-      <c r="AA40" s="6"/>
-      <c r="AB40" s="6"/>
-      <c r="AC40" s="6"/>
-      <c r="AD40" s="6"/>
-      <c r="AE40" s="6"/>
-      <c r="AF40" s="6"/>
-      <c r="AG40" s="6"/>
-      <c r="AH40" s="6"/>
-      <c r="AI40" s="6"/>
-      <c r="AJ40" s="6"/>
-      <c r="AK40" s="6"/>
-      <c r="AL40" s="6"/>
-      <c r="AM40" s="6"/>
-      <c r="AN40" s="6"/>
-      <c r="AO40" s="6"/>
-      <c r="AP40" s="6"/>
-      <c r="AQ40" s="7"/>
-    </row>
-    <row r="41" spans="1:43">
-      <c r="A41" s="8"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="9"/>
-      <c r="V41" s="9"/>
-      <c r="W41" s="9"/>
-      <c r="X41" s="9"/>
-      <c r="Y41" s="9"/>
-      <c r="Z41" s="9"/>
-      <c r="AA41" s="9"/>
-      <c r="AB41" s="9"/>
-      <c r="AC41" s="9"/>
-      <c r="AD41" s="9"/>
-      <c r="AE41" s="9"/>
-      <c r="AF41" s="9"/>
-      <c r="AG41" s="9"/>
-      <c r="AH41" s="9"/>
-      <c r="AI41" s="9"/>
-      <c r="AJ41" s="9"/>
-      <c r="AK41" s="9"/>
-      <c r="AL41" s="9"/>
-      <c r="AM41" s="9"/>
-      <c r="AN41" s="9"/>
-      <c r="AO41" s="9"/>
-      <c r="AP41" s="9"/>
-      <c r="AQ41" s="10"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="9"/>
+      <c r="AB40" s="9"/>
+      <c r="AC40" s="9"/>
+      <c r="AD40" s="9"/>
+      <c r="AE40" s="9"/>
+      <c r="AF40" s="9"/>
+      <c r="AG40" s="9"/>
+      <c r="AH40" s="9"/>
+      <c r="AI40" s="9"/>
+      <c r="AJ40" s="9"/>
+      <c r="AK40" s="9"/>
+      <c r="AL40" s="9"/>
+      <c r="AM40" s="9"/>
+      <c r="AN40" s="9"/>
+      <c r="AO40" s="9"/>
+      <c r="AP40" s="9"/>
+      <c r="AQ40" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -4776,27 +4581,27 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="65" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659E4170-1042-47C8-82B3-0ED9D1493326}">
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ41"/>
+  <dimension ref="A1:AQ32"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection sqref="A1:L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="4.296875" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:43" ht="19.5" thickTop="1">
+    <row r="1" spans="1:43" ht="18.600000000000001" thickTop="1">
       <c r="A1" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -4810,13 +4615,13 @@
       <c r="K1" s="24"/>
       <c r="L1" s="24"/>
       <c r="M1" s="18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N1" s="18"/>
       <c r="O1" s="18"/>
       <c r="P1" s="18"/>
       <c r="Q1" s="18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R1" s="18"/>
       <c r="S1" s="18"/>
@@ -4844,7 +4649,7 @@
       </c>
       <c r="AJ1" s="18"/>
       <c r="AK1" s="18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AL1" s="18"/>
       <c r="AM1" s="18"/>
@@ -4873,7 +4678,7 @@
       <c r="O2" s="20"/>
       <c r="P2" s="20"/>
       <c r="Q2" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R2" s="20"/>
       <c r="S2" s="20"/>
@@ -4901,7 +4706,7 @@
       </c>
       <c r="AJ2" s="20"/>
       <c r="AK2" s="20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AL2" s="20"/>
       <c r="AM2" s="20"/>
@@ -4910,7 +4715,7 @@
       <c r="AP2" s="20"/>
       <c r="AQ2" s="22"/>
     </row>
-    <row r="3" spans="1:43" ht="19.5" thickBot="1">
+    <row r="3" spans="1:43" ht="18.600000000000001" thickBot="1">
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -4924,12 +4729,10 @@
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
       <c r="M3" s="30" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="N3" s="30"/>
-      <c r="O3" s="31" t="s">
-        <v>22</v>
-      </c>
+      <c r="O3" s="31"/>
       <c r="P3" s="31"/>
       <c r="Q3" s="31"/>
       <c r="R3" s="31"/>
@@ -4959,10 +4762,10 @@
       <c r="AP3" s="31"/>
       <c r="AQ3" s="32"/>
     </row>
-    <row r="4" spans="1:43" ht="19.5" thickTop="1"/>
+    <row r="4" spans="1:43" ht="18.600000000000001" thickTop="1"/>
     <row r="5" spans="1:43">
       <c r="A5" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -6178,454 +5981,49 @@
       <c r="AQ31" s="7"/>
     </row>
     <row r="32" spans="1:43">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="6"/>
-      <c r="AA32" s="6"/>
-      <c r="AB32" s="6"/>
-      <c r="AC32" s="6"/>
-      <c r="AD32" s="6"/>
-      <c r="AE32" s="6"/>
-      <c r="AF32" s="6"/>
-      <c r="AG32" s="6"/>
-      <c r="AH32" s="6"/>
-      <c r="AI32" s="6"/>
-      <c r="AJ32" s="6"/>
-      <c r="AK32" s="6"/>
-      <c r="AL32" s="6"/>
-      <c r="AM32" s="6"/>
-      <c r="AN32" s="6"/>
-      <c r="AO32" s="6"/>
-      <c r="AP32" s="6"/>
-      <c r="AQ32" s="7"/>
-    </row>
-    <row r="33" spans="1:43">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="6"/>
-      <c r="AA33" s="6"/>
-      <c r="AB33" s="6"/>
-      <c r="AC33" s="6"/>
-      <c r="AD33" s="6"/>
-      <c r="AE33" s="6"/>
-      <c r="AF33" s="6"/>
-      <c r="AG33" s="6"/>
-      <c r="AH33" s="6"/>
-      <c r="AI33" s="6"/>
-      <c r="AJ33" s="6"/>
-      <c r="AK33" s="6"/>
-      <c r="AL33" s="6"/>
-      <c r="AM33" s="6"/>
-      <c r="AN33" s="6"/>
-      <c r="AO33" s="6"/>
-      <c r="AP33" s="6"/>
-      <c r="AQ33" s="7"/>
-    </row>
-    <row r="34" spans="1:43">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="6"/>
-      <c r="Y34" s="6"/>
-      <c r="Z34" s="6"/>
-      <c r="AA34" s="6"/>
-      <c r="AB34" s="6"/>
-      <c r="AC34" s="6"/>
-      <c r="AD34" s="6"/>
-      <c r="AE34" s="6"/>
-      <c r="AF34" s="6"/>
-      <c r="AG34" s="6"/>
-      <c r="AH34" s="6"/>
-      <c r="AI34" s="6"/>
-      <c r="AJ34" s="6"/>
-      <c r="AK34" s="6"/>
-      <c r="AL34" s="6"/>
-      <c r="AM34" s="6"/>
-      <c r="AN34" s="6"/>
-      <c r="AO34" s="6"/>
-      <c r="AP34" s="6"/>
-      <c r="AQ34" s="7"/>
-    </row>
-    <row r="35" spans="1:43">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="6"/>
-      <c r="Z35" s="6"/>
-      <c r="AA35" s="6"/>
-      <c r="AB35" s="6"/>
-      <c r="AC35" s="6"/>
-      <c r="AD35" s="6"/>
-      <c r="AE35" s="6"/>
-      <c r="AF35" s="6"/>
-      <c r="AG35" s="6"/>
-      <c r="AH35" s="6"/>
-      <c r="AI35" s="6"/>
-      <c r="AJ35" s="6"/>
-      <c r="AK35" s="6"/>
-      <c r="AL35" s="6"/>
-      <c r="AM35" s="6"/>
-      <c r="AN35" s="6"/>
-      <c r="AO35" s="6"/>
-      <c r="AP35" s="6"/>
-      <c r="AQ35" s="7"/>
-    </row>
-    <row r="36" spans="1:43">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6"/>
-      <c r="Z36" s="6"/>
-      <c r="AA36" s="6"/>
-      <c r="AB36" s="6"/>
-      <c r="AC36" s="6"/>
-      <c r="AD36" s="6"/>
-      <c r="AE36" s="6"/>
-      <c r="AF36" s="6"/>
-      <c r="AG36" s="6"/>
-      <c r="AH36" s="6"/>
-      <c r="AI36" s="6"/>
-      <c r="AJ36" s="6"/>
-      <c r="AK36" s="6"/>
-      <c r="AL36" s="6"/>
-      <c r="AM36" s="6"/>
-      <c r="AN36" s="6"/>
-      <c r="AO36" s="6"/>
-      <c r="AP36" s="6"/>
-      <c r="AQ36" s="7"/>
-    </row>
-    <row r="37" spans="1:43">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
-      <c r="X37" s="6"/>
-      <c r="Y37" s="6"/>
-      <c r="Z37" s="6"/>
-      <c r="AA37" s="6"/>
-      <c r="AB37" s="6"/>
-      <c r="AC37" s="6"/>
-      <c r="AD37" s="6"/>
-      <c r="AE37" s="6"/>
-      <c r="AF37" s="6"/>
-      <c r="AG37" s="6"/>
-      <c r="AH37" s="6"/>
-      <c r="AI37" s="6"/>
-      <c r="AJ37" s="6"/>
-      <c r="AK37" s="6"/>
-      <c r="AL37" s="6"/>
-      <c r="AM37" s="6"/>
-      <c r="AN37" s="6"/>
-      <c r="AO37" s="6"/>
-      <c r="AP37" s="6"/>
-      <c r="AQ37" s="7"/>
-    </row>
-    <row r="38" spans="1:43">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="6"/>
-      <c r="Y38" s="6"/>
-      <c r="Z38" s="6"/>
-      <c r="AA38" s="6"/>
-      <c r="AB38" s="6"/>
-      <c r="AC38" s="6"/>
-      <c r="AD38" s="6"/>
-      <c r="AE38" s="6"/>
-      <c r="AF38" s="6"/>
-      <c r="AG38" s="6"/>
-      <c r="AH38" s="6"/>
-      <c r="AI38" s="6"/>
-      <c r="AJ38" s="6"/>
-      <c r="AK38" s="6"/>
-      <c r="AL38" s="6"/>
-      <c r="AM38" s="6"/>
-      <c r="AN38" s="6"/>
-      <c r="AO38" s="6"/>
-      <c r="AP38" s="6"/>
-      <c r="AQ38" s="7"/>
-    </row>
-    <row r="39" spans="1:43">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6"/>
-      <c r="W39" s="6"/>
-      <c r="X39" s="6"/>
-      <c r="Y39" s="6"/>
-      <c r="Z39" s="6"/>
-      <c r="AA39" s="6"/>
-      <c r="AB39" s="6"/>
-      <c r="AC39" s="6"/>
-      <c r="AD39" s="6"/>
-      <c r="AE39" s="6"/>
-      <c r="AF39" s="6"/>
-      <c r="AG39" s="6"/>
-      <c r="AH39" s="6"/>
-      <c r="AI39" s="6"/>
-      <c r="AJ39" s="6"/>
-      <c r="AK39" s="6"/>
-      <c r="AL39" s="6"/>
-      <c r="AM39" s="6"/>
-      <c r="AN39" s="6"/>
-      <c r="AO39" s="6"/>
-      <c r="AP39" s="6"/>
-      <c r="AQ39" s="7"/>
-    </row>
-    <row r="40" spans="1:43">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="6"/>
-      <c r="X40" s="6"/>
-      <c r="Y40" s="6"/>
-      <c r="Z40" s="6"/>
-      <c r="AA40" s="6"/>
-      <c r="AB40" s="6"/>
-      <c r="AC40" s="6"/>
-      <c r="AD40" s="6"/>
-      <c r="AE40" s="6"/>
-      <c r="AF40" s="6"/>
-      <c r="AG40" s="6"/>
-      <c r="AH40" s="6"/>
-      <c r="AI40" s="6"/>
-      <c r="AJ40" s="6"/>
-      <c r="AK40" s="6"/>
-      <c r="AL40" s="6"/>
-      <c r="AM40" s="6"/>
-      <c r="AN40" s="6"/>
-      <c r="AO40" s="6"/>
-      <c r="AP40" s="6"/>
-      <c r="AQ40" s="7"/>
-    </row>
-    <row r="41" spans="1:43">
-      <c r="A41" s="8"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="9"/>
-      <c r="V41" s="9"/>
-      <c r="W41" s="9"/>
-      <c r="X41" s="9"/>
-      <c r="Y41" s="9"/>
-      <c r="Z41" s="9"/>
-      <c r="AA41" s="9"/>
-      <c r="AB41" s="9"/>
-      <c r="AC41" s="9"/>
-      <c r="AD41" s="9"/>
-      <c r="AE41" s="9"/>
-      <c r="AF41" s="9"/>
-      <c r="AG41" s="9"/>
-      <c r="AH41" s="9"/>
-      <c r="AI41" s="9"/>
-      <c r="AJ41" s="9"/>
-      <c r="AK41" s="9"/>
-      <c r="AL41" s="9"/>
-      <c r="AM41" s="9"/>
-      <c r="AN41" s="9"/>
-      <c r="AO41" s="9"/>
-      <c r="AP41" s="9"/>
-      <c r="AQ41" s="10"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="9"/>
+      <c r="AB32" s="9"/>
+      <c r="AC32" s="9"/>
+      <c r="AD32" s="9"/>
+      <c r="AE32" s="9"/>
+      <c r="AF32" s="9"/>
+      <c r="AG32" s="9"/>
+      <c r="AH32" s="9"/>
+      <c r="AI32" s="9"/>
+      <c r="AJ32" s="9"/>
+      <c r="AK32" s="9"/>
+      <c r="AL32" s="9"/>
+      <c r="AM32" s="9"/>
+      <c r="AN32" s="9"/>
+      <c r="AO32" s="9"/>
+      <c r="AP32" s="9"/>
+      <c r="AQ32" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -6648,69 +6046,69 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="65" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F7F9B4-2B98-4077-87DB-91B04FC43D58}">
   <dimension ref="B2:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
